--- a/src/main/java/Data/TestSuite1/Data.xlsx
+++ b/src/main/java/Data/TestSuite1/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,23 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TC_Name</t>
   </si>
   <si>
     <t>Destination</t>
+  </si>
+  <si>
+    <t>enterDetailsHomePage</t>
+  </si>
+  <si>
+    <t>Mum</t>
   </si>
 </sst>
 </file>
@@ -353,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -375,6 +382,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/Data/TestSuite1/Data.xlsx
+++ b/src/main/java/Data/TestSuite1/Data.xlsx
@@ -17,18 +17,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TC_Name</t>
   </si>
   <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>enterDetailsHomePage</t>
-  </si>
-  <si>
     <t>Mum</t>
+  </si>
+  <si>
+    <t>FromDestination</t>
+  </si>
+  <si>
+    <t>SearchFlights</t>
+  </si>
+  <si>
+    <t>ToDestination</t>
+  </si>
+  <si>
+    <t>Del</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -374,20 +380,26 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Data/TestSuite1/Data.xlsx
+++ b/src/main/java/Data/TestSuite1/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3975"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TC_Name</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Del</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -70,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -380,7 +393,7 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +403,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -400,6 +419,12 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
